--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/NEW_YORK_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/NEW_YORK_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1419"/>
+  <dimension ref="A1:D1413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C21">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C24">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C31">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C47">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C55">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C56">
@@ -1452,7 +1452,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C82">
@@ -1670,7 +1670,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1727,14 +1727,14 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C102">
         <v>25</v>
       </c>
       <c r="D102">
-        <v>0.0009044862518089725</v>
+        <v>0.0009044862518089724</v>
       </c>
     </row>
     <row r="103">
@@ -2018,7 +2018,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C124">
@@ -2057,12 +2057,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C127">
@@ -2101,7 +2101,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C130">
@@ -2114,7 +2114,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C131">
@@ -2127,7 +2127,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C132">
@@ -2192,7 +2192,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C137">
@@ -2257,7 +2257,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C142">
@@ -2309,7 +2309,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C146">
@@ -2387,7 +2387,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C152">
@@ -2465,7 +2465,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C158">
@@ -2478,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C159">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C172">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C182">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C183">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C195">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C206">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C212">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C213">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C214">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C215">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C225">
@@ -3354,7 +3354,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C226">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C227">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C235">
@@ -3640,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C248">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C249">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C251">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C254">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C258">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C261">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C262">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C267">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C269">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C270">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C274">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C275">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C276">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C281">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C282">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C286">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C287">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C294">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C296">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C297">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C299">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C302">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C315">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C317">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C319">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C321">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C325">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C326">
@@ -4807,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C337">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C342">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C348">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C351">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C355">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C358">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C364">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C365">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C366">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C368">
@@ -5223,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C369">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C370">
@@ -5275,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C373">
@@ -5340,7 +5340,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C378">
@@ -5353,7 +5353,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C379">
@@ -5386,7 +5386,7 @@
         <v>25</v>
       </c>
       <c r="D381">
-        <v>0.0009044862518089725</v>
+        <v>0.0009044862518089724</v>
       </c>
     </row>
     <row r="382">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C383">
@@ -5431,7 +5431,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C385">
@@ -5444,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C386">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C389">
@@ -5587,7 +5587,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C397">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C398">
@@ -5613,7 +5613,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C399">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C403">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C409">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C417">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C422">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C423">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C431">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C434">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C438">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C439">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C443">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C444">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C445">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C447">
@@ -6301,7 +6301,7 @@
         <v>271</v>
       </c>
       <c r="D451">
-        <v>0.009804630969609263</v>
+        <v>0.009804630969609264</v>
       </c>
     </row>
     <row r="452">
@@ -6481,7 +6481,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C465">
@@ -7131,7 +7131,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C515">
@@ -7500,7 +7500,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C543">
@@ -7552,7 +7552,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C547">
@@ -7630,7 +7630,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C553">
@@ -7656,7 +7656,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C555">
@@ -7760,7 +7760,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C563">
@@ -7991,7 +7991,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C580">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C584">
@@ -8113,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C589">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C594">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C595">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C596">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C599">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C600">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C604">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C605">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C606">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C607">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C608">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C609">
@@ -8386,7 +8386,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C610">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C611">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C613">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C614">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C617">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C619">
@@ -8529,7 +8529,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C621">
@@ -8542,7 +8542,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C622">
@@ -8581,7 +8581,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C625">
@@ -8607,7 +8607,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C627">
@@ -8620,7 +8620,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C628">
@@ -8633,7 +8633,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C629">
@@ -8659,20 +8659,20 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C631">
         <v>25</v>
       </c>
       <c r="D631">
-        <v>0.0009044862518089725</v>
+        <v>0.0009044862518089724</v>
       </c>
     </row>
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C632">
@@ -8698,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C634">
@@ -8893,7 +8893,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C649">
@@ -9257,7 +9257,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C677">
@@ -9361,7 +9361,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C685">
@@ -9374,7 +9374,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C686">
@@ -9387,7 +9387,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C687">
@@ -9894,7 +9894,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C726">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C743">
@@ -10362,7 +10362,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C762">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C774">
@@ -10635,7 +10635,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C783">
@@ -10700,7 +10700,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C788">
@@ -10739,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C791">
@@ -10752,7 +10752,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C792">
@@ -10765,7 +10765,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C793">
@@ -10921,7 +10921,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C805">
@@ -11532,7 +11532,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C852">
@@ -11701,7 +11701,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C865">
@@ -11714,7 +11714,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C866">
@@ -11740,7 +11740,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C868">
@@ -11753,7 +11753,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C869">
@@ -11766,7 +11766,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C870">
@@ -11792,7 +11792,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C872">
@@ -11805,7 +11805,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C873">
@@ -11818,7 +11818,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C874">
@@ -11831,7 +11831,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C875">
@@ -11870,7 +11870,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C878">
@@ -11883,7 +11883,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C879">
@@ -11896,7 +11896,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C880">
@@ -11909,7 +11909,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C881">
@@ -11948,7 +11948,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C884">
@@ -11961,7 +11961,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C885">
@@ -12000,7 +12000,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C888">
@@ -12298,7 +12298,7 @@
         <v>25</v>
       </c>
       <c r="D910">
-        <v>0.0009044862518089725</v>
+        <v>0.0009044862518089724</v>
       </c>
     </row>
     <row r="911">
@@ -12343,7 +12343,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C914">
@@ -12421,7 +12421,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C920">
@@ -12564,7 +12564,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C931">
@@ -12707,7 +12707,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C942">
@@ -12759,7 +12759,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C946">
@@ -12772,7 +12772,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C947">
@@ -12980,7 +12980,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C963">
@@ -12993,7 +12993,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C964">
@@ -13045,7 +13045,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C968">
@@ -13071,7 +13071,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C970">
@@ -13110,7 +13110,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C973">
@@ -13253,7 +13253,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C984">
@@ -13266,7 +13266,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C985">
@@ -13435,7 +13435,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C998">
@@ -13455,7 +13455,7 @@
         <v>25</v>
       </c>
       <c r="D999">
-        <v>0.0009044862518089725</v>
+        <v>0.0009044862518089724</v>
       </c>
     </row>
     <row r="1000">
@@ -13565,7 +13565,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1008">
@@ -13786,7 +13786,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1025">
@@ -13838,7 +13838,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1029">
@@ -13851,7 +13851,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1030">
@@ -13968,7 +13968,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1039">
@@ -14072,7 +14072,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1047">
@@ -14085,7 +14085,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1048">
@@ -14098,7 +14098,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1049">
@@ -14176,7 +14176,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1055">
@@ -14202,7 +14202,7 @@
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1057">
@@ -14215,7 +14215,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1058">
@@ -14228,7 +14228,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1059">
@@ -14293,7 +14293,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1064">
@@ -14449,7 +14449,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1076">
@@ -14475,7 +14475,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1078">
@@ -14527,7 +14527,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1082">
@@ -14605,7 +14605,7 @@
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1088">
@@ -14664,7 +14664,7 @@
         <v>25</v>
       </c>
       <c r="D1092">
-        <v>0.0009044862518089725</v>
+        <v>0.0009044862518089724</v>
       </c>
     </row>
     <row r="1093">
@@ -14805,7 +14805,7 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1103">
@@ -14818,7 +14818,7 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1104">
@@ -14844,7 +14844,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1106">
@@ -14857,7 +14857,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1107">
@@ -14883,7 +14883,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1109">
@@ -14909,7 +14909,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1111">
@@ -15036,7 +15036,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1120">
@@ -15114,7 +15114,7 @@
     <row r="1126">
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1126">
@@ -15231,7 +15231,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1135">
@@ -15322,7 +15322,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1142">
@@ -15348,7 +15348,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1144">
@@ -15361,7 +15361,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1145">
@@ -15374,7 +15374,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1146">
@@ -15631,7 +15631,7 @@
     <row r="1165">
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1165">
@@ -15992,7 +15992,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1192">
@@ -16075,7 +16075,7 @@
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1198">
@@ -16101,7 +16101,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1200">
@@ -16114,7 +16114,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1201">
@@ -16179,7 +16179,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1206">
@@ -16257,7 +16257,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1212">
@@ -16296,7 +16296,7 @@
     <row r="1215">
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1215">
@@ -16309,7 +16309,7 @@
     <row r="1216">
       <c r="B1216" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1216">
@@ -16348,7 +16348,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1219">
@@ -16387,7 +16387,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1222">
@@ -16400,7 +16400,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1223">
@@ -16504,7 +16504,7 @@
     <row r="1231">
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1231">
@@ -16537,13 +16537,13 @@
         <v>25</v>
       </c>
       <c r="D1233">
-        <v>0.0009044862518089725</v>
+        <v>0.0009044862518089724</v>
       </c>
     </row>
     <row r="1234">
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1234">
@@ -16821,7 +16821,7 @@
     <row r="1255">
       <c r="B1255" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1255">
@@ -16912,7 +16912,7 @@
     <row r="1262">
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1262">
@@ -16977,7 +16977,7 @@
     <row r="1267">
       <c r="B1267" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1267">
@@ -17003,7 +17003,7 @@
     <row r="1269">
       <c r="B1269" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1269">
@@ -17146,7 +17146,7 @@
     <row r="1280">
       <c r="B1280" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1280">
@@ -17354,7 +17354,7 @@
     <row r="1296">
       <c r="B1296" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1296">
@@ -17367,7 +17367,7 @@
     <row r="1297">
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1297">
@@ -17419,7 +17419,7 @@
     <row r="1301">
       <c r="B1301" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1301">
@@ -17432,7 +17432,7 @@
     <row r="1302">
       <c r="B1302" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1302">
@@ -17445,7 +17445,7 @@
     <row r="1303">
       <c r="B1303" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1303">
@@ -17549,7 +17549,7 @@
     <row r="1311">
       <c r="B1311" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1311">
@@ -17588,7 +17588,7 @@
     <row r="1314">
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1314">
@@ -17601,7 +17601,7 @@
     <row r="1315">
       <c r="B1315" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1315">
@@ -17653,7 +17653,7 @@
     <row r="1319">
       <c r="B1319" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1319">
@@ -17679,7 +17679,7 @@
     <row r="1321">
       <c r="B1321" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1321">
@@ -17731,7 +17731,7 @@
     <row r="1325">
       <c r="B1325" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1325">
@@ -17848,7 +17848,7 @@
     <row r="1334">
       <c r="B1334" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1334">
@@ -17861,7 +17861,7 @@
     <row r="1335">
       <c r="B1335" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1335">
@@ -17913,7 +17913,7 @@
     <row r="1339">
       <c r="B1339" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1339">
@@ -17972,7 +17972,7 @@
         <v>25</v>
       </c>
       <c r="D1343">
-        <v>0.0009044862518089725</v>
+        <v>0.0009044862518089724</v>
       </c>
     </row>
     <row r="1344">
@@ -18004,7 +18004,7 @@
     <row r="1346">
       <c r="B1346" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1346">
@@ -18043,7 +18043,7 @@
     <row r="1349">
       <c r="B1349" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1349">
@@ -18095,7 +18095,7 @@
     <row r="1353">
       <c r="B1353" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1353">
@@ -18290,7 +18290,7 @@
     <row r="1368">
       <c r="B1368" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1368">
@@ -18407,7 +18407,7 @@
     <row r="1377">
       <c r="B1377" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1377">
@@ -18524,7 +18524,7 @@
     <row r="1386">
       <c r="B1386" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1386">
@@ -18537,7 +18537,7 @@
     <row r="1387">
       <c r="B1387" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1387">
@@ -18729,7 +18729,7 @@
     <row r="1401">
       <c r="B1401" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1401">
@@ -18893,41 +18893,6 @@
       </c>
       <c r="D1413">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1415">
-      <c r="A1415" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1416">
-      <c r="A1416" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1417">
-      <c r="A1417" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1418">
-      <c r="A1418" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1419">
-      <c r="A1419" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
